--- a/sim2/sim2.xlsx
+++ b/sim2/sim2.xlsx
@@ -478,16 +478,16 @@
         <v>1.5</v>
       </c>
       <c r="D2" t="n">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E2" t="n">
-        <v>26.4</v>
+        <v>18.15</v>
       </c>
       <c r="F2" t="n">
-        <v>-52.8</v>
+        <v>-36.3</v>
       </c>
       <c r="G2" t="n">
-        <v>-26.4</v>
+        <v>-18.15</v>
       </c>
     </row>
     <row r="3">
@@ -503,16 +503,16 @@
         <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E3" t="n">
-        <v>44.51980383359345</v>
+        <v>34.2511151355955</v>
       </c>
       <c r="F3" t="n">
-        <v>-86.79476880966942</v>
+        <v>-66.95890355664773</v>
       </c>
       <c r="G3" t="n">
-        <v>-42.27496497607597</v>
+        <v>-32.70778842105223</v>
       </c>
     </row>
     <row r="4">
@@ -531,13 +531,13 @@
         <v>12</v>
       </c>
       <c r="E4" t="n">
-        <v>89.741386427782</v>
+        <v>79.6983740107159</v>
       </c>
       <c r="F4" t="n">
-        <v>-173.5971124856501</v>
+        <v>-155.0405219873024</v>
       </c>
       <c r="G4" t="n">
-        <v>-83.85572605786814</v>
+        <v>-75.34214797658649</v>
       </c>
     </row>
     <row r="5">
@@ -553,16 +553,16 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E5" t="n">
-        <v>96.5691285348499</v>
+        <v>91.14683268231239</v>
       </c>
       <c r="F5" t="n">
-        <v>-180.0013113116452</v>
+        <v>-171.4414912820695</v>
       </c>
       <c r="G5" t="n">
-        <v>-83.43218277679527</v>
+        <v>-80.29465859975711</v>
       </c>
     </row>
     <row r="6">
@@ -575,19 +575,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="n">
-        <v>104.3468164829885</v>
+        <v>99.04368711782844</v>
       </c>
       <c r="F6" t="n">
-        <v>-188.1924840468948</v>
+        <v>-180.1847126186132</v>
       </c>
       <c r="G6" t="n">
-        <v>-83.8456675639063</v>
+        <v>-81.14102550078481</v>
       </c>
     </row>
     <row r="7">
@@ -603,16 +603,16 @@
         <v>1.5</v>
       </c>
       <c r="D7" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E7" t="n">
-        <v>123.5035731913159</v>
+        <v>111.7169913764446</v>
       </c>
       <c r="F7" t="n">
-        <v>-218.9553833563214</v>
+        <v>-198.2640572506274</v>
       </c>
       <c r="G7" t="n">
-        <v>-95.45181016500551</v>
+        <v>-86.54706587418276</v>
       </c>
     </row>
     <row r="8">
@@ -625,19 +625,19 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E8" t="n">
-        <v>133.9893194146829</v>
+        <v>126.8617728113277</v>
       </c>
       <c r="F8" t="n">
-        <v>-231.2342905401143</v>
+        <v>-220.6774104386704</v>
       </c>
       <c r="G8" t="n">
-        <v>-97.24497112543145</v>
+        <v>-93.81563762734277</v>
       </c>
     </row>
     <row r="9">
@@ -650,19 +650,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E9" t="n">
-        <v>152.4946190562048</v>
+        <v>135.0737154534235</v>
       </c>
       <c r="F9" t="n">
-        <v>-259.2212939791074</v>
+        <v>-228.4452589040654</v>
       </c>
       <c r="G9" t="n">
-        <v>-106.7266749229027</v>
+        <v>-93.37154345064195</v>
       </c>
     </row>
     <row r="10">
@@ -681,13 +681,13 @@
         <v>10</v>
       </c>
       <c r="E10" t="n">
-        <v>193.1432253677943</v>
+        <v>176.1051831849248</v>
       </c>
       <c r="F10" t="n">
-        <v>-330.5033311863895</v>
+        <v>-301.7121354021096</v>
       </c>
       <c r="G10" t="n">
-        <v>-137.3601058185952</v>
+        <v>-125.6069522171848</v>
       </c>
     </row>
     <row r="11">
@@ -703,16 +703,16 @@
         <v>1</v>
       </c>
       <c r="D11" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>196.5984920751507</v>
+        <v>183.2348971179469</v>
       </c>
       <c r="F11" t="n">
-        <v>-324.5881749010854</v>
+        <v>-304.2538101374788</v>
       </c>
       <c r="G11" t="n">
-        <v>-127.9896828259347</v>
+        <v>-121.0189130195318</v>
       </c>
     </row>
     <row r="12">
@@ -728,16 +728,16 @@
         <v>1.5</v>
       </c>
       <c r="D12" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>217.0278219454799</v>
+        <v>199.0079204187147</v>
       </c>
       <c r="F12" t="n">
-        <v>-353.1545048786299</v>
+        <v>-324.231564606095</v>
       </c>
       <c r="G12" t="n">
-        <v>-136.12668293315</v>
+        <v>-125.2236441873803</v>
       </c>
     </row>
     <row r="13">
@@ -753,16 +753,16 @@
         <v>1.5</v>
       </c>
       <c r="D13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E13" t="n">
-        <v>240.3081738281947</v>
+        <v>219.3842979750981</v>
       </c>
       <c r="F13" t="n">
-        <v>-386.4785061093408</v>
+        <v>-352.8208934567322</v>
       </c>
       <c r="G13" t="n">
-        <v>-146.1703322811461</v>
+        <v>-133.436595481634</v>
       </c>
     </row>
     <row r="14">
@@ -781,13 +781,13 @@
         <v>18</v>
       </c>
       <c r="E14" t="n">
-        <v>254.8268904489797</v>
+        <v>234.362861283623</v>
       </c>
       <c r="F14" t="n">
-        <v>-401.1533420298731</v>
+        <v>-369.6664102938691</v>
       </c>
       <c r="G14" t="n">
-        <v>-146.3264515808934</v>
+        <v>-135.3035490102461</v>
       </c>
     </row>
     <row r="15">
@@ -803,16 +803,16 @@
         <v>1.5</v>
       </c>
       <c r="D15" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E15" t="n">
-        <v>277.2765273832297</v>
+        <v>249.012238796319</v>
       </c>
       <c r="F15" t="n">
-        <v>-431.381753537724</v>
+        <v>-385.4255089614786</v>
       </c>
       <c r="G15" t="n">
-        <v>-154.1052261544943</v>
+        <v>-136.4132701651596</v>
       </c>
     </row>
     <row r="16">
@@ -831,13 +831,13 @@
         <v>10</v>
       </c>
       <c r="E16" t="n">
-        <v>315.1827857839013</v>
+        <v>287.5396650713972</v>
       </c>
       <c r="F16" t="n">
-        <v>-491.5606436497285</v>
+        <v>-448.5682558428296</v>
       </c>
       <c r="G16" t="n">
-        <v>-176.3778578658273</v>
+        <v>-161.0285907714324</v>
       </c>
     </row>
     <row r="17">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="D17" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E17" t="n">
-        <v>320.3559735100697</v>
+        <v>292.2203691863878</v>
       </c>
       <c r="F17" t="n">
-        <v>-484.058415700959</v>
+        <v>-441.6387366044169</v>
       </c>
       <c r="G17" t="n">
-        <v>-163.7024421908893</v>
+        <v>-149.418367418029</v>
       </c>
     </row>
     <row r="18">
@@ -875,19 +875,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" t="n">
-        <v>324.865469429919</v>
+        <v>292.3982048701815</v>
       </c>
       <c r="F18" t="n">
-        <v>-475.9400290515857</v>
+        <v>-426.3561229539708</v>
       </c>
       <c r="G18" t="n">
-        <v>-151.0745596216668</v>
+        <v>-133.9579180837893</v>
       </c>
     </row>
     <row r="19">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="D19" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E19" t="n">
-        <v>336.4258595829075</v>
+        <v>299.1721322364756</v>
       </c>
       <c r="F19" t="n">
-        <v>-482.6452216339095</v>
+        <v>-425.2591311344389</v>
       </c>
       <c r="G19" t="n">
-        <v>-146.219362051002</v>
+        <v>-126.0869988979633</v>
       </c>
     </row>
     <row r="20">
@@ -925,19 +925,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D20" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>345.5321855673761</v>
+        <v>320.6471881372606</v>
       </c>
       <c r="F20" t="n">
-        <v>-484.5179761306556</v>
+        <v>-453.9328876247444</v>
       </c>
       <c r="G20" t="n">
-        <v>-138.9857905632795</v>
+        <v>-133.2856994874837</v>
       </c>
     </row>
     <row r="21">
@@ -953,16 +953,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E21" t="n">
-        <v>358.8383806644871</v>
+        <v>324.6002839961138</v>
       </c>
       <c r="F21" t="n">
-        <v>-495.069951043611</v>
+        <v>-446.6573871085208</v>
       </c>
       <c r="G21" t="n">
-        <v>-136.2315703791238</v>
+        <v>-122.057103112407</v>
       </c>
     </row>
     <row r="22">
@@ -971,23 +971,23 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>12km_pacerunnning</t>
+          <t>10km_pacerunnning</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="D22" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E22" t="n">
-        <v>397.1521438152042</v>
+        <v>361.4665021631963</v>
       </c>
       <c r="F22" t="n">
-        <v>-555.5413972805591</v>
+        <v>-505.8511055559924</v>
       </c>
       <c r="G22" t="n">
-        <v>-158.3892534653548</v>
+        <v>-144.3846033927961</v>
       </c>
     </row>
     <row r="23">
@@ -1003,16 +1003,16 @@
         <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E23" t="n">
-        <v>401.6238805075632</v>
+        <v>367.8225067526103</v>
       </c>
       <c r="F23" t="n">
-        <v>-546.1128576301879</v>
+        <v>-501.8272426335972</v>
       </c>
       <c r="G23" t="n">
-        <v>-144.4889771226248</v>
+        <v>-134.0047358809869</v>
       </c>
     </row>
     <row r="24">
@@ -1025,19 +1025,19 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D24" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E24" t="n">
-        <v>410.3973412724189</v>
+        <v>376.2388246186743</v>
       </c>
       <c r="F24" t="n">
-        <v>-546.0923929286182</v>
+        <v>-502.4628907628866</v>
       </c>
       <c r="G24" t="n">
-        <v>-135.6950516561993</v>
+        <v>-126.2240661442123</v>
       </c>
     </row>
     <row r="25">
@@ -1053,16 +1053,16 @@
         <v>1</v>
       </c>
       <c r="D25" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E25" t="n">
-        <v>421.177986571294</v>
+        <v>388.8701759937857</v>
       </c>
       <c r="F25" t="n">
-        <v>-550.4732480573532</v>
+        <v>-511.8575440278592</v>
       </c>
       <c r="G25" t="n">
-        <v>-129.2952614860592</v>
+        <v>-122.9873680340735</v>
       </c>
     </row>
     <row r="26">
@@ -1078,16 +1078,16 @@
         <v>1</v>
       </c>
       <c r="D26" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E26" t="n">
-        <v>420.7217042537375</v>
+        <v>386.9239265490344</v>
       </c>
       <c r="F26" t="n">
-        <v>-532.5715686306963</v>
+        <v>-492.0463077791911</v>
       </c>
       <c r="G26" t="n">
-        <v>-111.8498643769589</v>
+        <v>-105.1223812301567</v>
       </c>
     </row>
     <row r="27">
@@ -1103,16 +1103,16 @@
         <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E27" t="n">
-        <v>421.3754497108569</v>
+        <v>385.0204500765072</v>
       </c>
       <c r="F27" t="n">
-        <v>-518.024422483262</v>
+        <v>-473.5127578864505</v>
       </c>
       <c r="G27" t="n">
-        <v>-96.64897277240516</v>
+        <v>-88.49230780994327</v>
       </c>
     </row>
     <row r="28">
@@ -1131,13 +1131,13 @@
         <v>12</v>
       </c>
       <c r="E28" t="n">
-        <v>458.3148277207026</v>
+        <v>422.7588065491393</v>
       </c>
       <c r="F28" t="n">
-        <v>-577.0154656500614</v>
+        <v>-535.3744925043598</v>
       </c>
       <c r="G28" t="n">
-        <v>-118.7006379293588</v>
+        <v>-112.6156859552204</v>
       </c>
     </row>
     <row r="29">
@@ -1156,13 +1156,13 @@
         <v>15</v>
       </c>
       <c r="E29" t="n">
-        <v>464.7423843096863</v>
+        <v>429.9677823493508</v>
       </c>
       <c r="F29" t="n">
-        <v>-572.801998586904</v>
+        <v>-533.846577345586</v>
       </c>
       <c r="G29" t="n">
-        <v>-108.0596142772177</v>
+        <v>-103.8787949962352</v>
       </c>
     </row>
     <row r="30">
@@ -1175,19 +1175,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="D30" t="n">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E30" t="n">
-        <v>474.3286816679015</v>
+        <v>445.2683255691456</v>
       </c>
       <c r="F30" t="n">
-        <v>-575.4602707181195</v>
+        <v>-548.9172020420174</v>
       </c>
       <c r="G30" t="n">
-        <v>-101.131589050218</v>
+        <v>-103.6488764728718</v>
       </c>
     </row>
     <row r="31">
@@ -1200,19 +1200,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D31" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="E31" t="n">
-        <v>483.7042997466747</v>
+        <v>453.0826067995441</v>
       </c>
       <c r="F31" t="n">
-        <v>-577.9471028649866</v>
+        <v>-548.7158767143192</v>
       </c>
       <c r="G31" t="n">
-        <v>-94.24280311831188</v>
+        <v>-95.6332699147751</v>
       </c>
     </row>
     <row r="32">
@@ -1225,19 +1225,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="D32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E32" t="n">
-        <v>489.5738686713951</v>
+        <v>449.7251525749009</v>
       </c>
       <c r="F32" t="n">
-        <v>-573.6735517089819</v>
+        <v>-526.5275354639937</v>
       </c>
       <c r="G32" t="n">
-        <v>-84.09968303758683</v>
+        <v>-76.80238288909277</v>
       </c>
     </row>
   </sheetData>
